--- a/biology/Médecine/1174_en_santé_et_médecine/1174_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1174_en_santé_et_médecine/1174_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1174_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1174_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1174 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1174_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1174_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de la léproserie Saint-Pierre de Bruxelles, en Basse-Lotharingie[1],[2].
-Première conservée des chartes de fondation de la « maison hospitalière » ou « aumônerie » établie vers 1150 à Montaigu, aux marches du Poitou, par Brient Ier, seigneur de Commequiers[3].
-1163-1174 : fondation de la maladrerie Saint-Lazare d'Avignon en Provence[4].
-Après 1174 : fondation d'une aumônerie à Angers par Étienne de Marsay, sénéchal d'Anjou[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de la léproserie Saint-Pierre de Bruxelles, en Basse-Lotharingie,.
+Première conservée des chartes de fondation de la « maison hospitalière » ou « aumônerie » établie vers 1150 à Montaigu, aux marches du Poitou, par Brient Ier, seigneur de Commequiers.
+1163-1174 : fondation de la maladrerie Saint-Lazare d'Avignon en Provence.
+Après 1174 : fondation d'une aumônerie à Angers par Étienne de Marsay, sénéchal d'Anjou.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1174_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1174_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1154-1174 : Fl. Manassès de Villamauri, chirurgien et archidiacre, cité dans des chartes d'Henri de Carinthie et de Matthieu, évêques de Troyes[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1154-1174 : Fl. Manassès de Villamauri, chirurgien et archidiacre, cité dans des chartes d'Henri de Carinthie et de Matthieu, évêques de Troyes.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1174_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1174_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1165 ou 1174[7] (ou 1167[8]) : Abraham ibn Ezra (né en 1099 ou 1119[7] (ou 1092 ou 1093[8]), rabbin espagnol, philosophe, astronome, poète, médecin, philologue et cabaliste, auteur de nombreux ouvrages, dont un d'astrologie médicale, Sefer ha-Me'orot, traduit en latin sous le titre De luminaribus et diebus criticis, « le seul qui ait rapport à la médecine », et qui sera imprimé pour la première fois à Lyon en 1496[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1165 ou 1174 (ou 1167) : Abraham ibn Ezra (né en 1099 ou 1119 (ou 1092 ou 1093), rabbin espagnol, philosophe, astronome, poète, médecin, philologue et cabaliste, auteur de nombreux ouvrages, dont un d'astrologie médicale, Sefer ha-Me'orot, traduit en latin sous le titre De luminaribus et diebus criticis, « le seul qui ait rapport à la médecine », et qui sera imprimé pour la première fois à Lyon en 1496.
 </t>
         </is>
       </c>
